--- a/inspection_machine/datasheet/コマンド表.xlsx
+++ b/inspection_machine/datasheet/コマンド表.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="コマンド表" sheetId="1" r:id="rId1"/>
+    <sheet name="最高速度早見表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="31" uniqueCount="31">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="43" uniqueCount="43">
   <si>
     <t>CLEAR_X</t>
   </si>
@@ -62,15 +63,6 @@
     <t>Z(このあとに数字)</t>
   </si>
   <si>
-    <t>モータXの最大速度を(数字)[pulse/sec]にする</t>
-  </si>
-  <si>
-    <t>モータYの最大速度を(数字)[pulse/sec]にする</t>
-  </si>
-  <si>
-    <t>モータZの最大速度を(数字)[pulse/sec]にする</t>
-  </si>
-  <si>
     <t>モータXを（数字）に移動させる</t>
   </si>
   <si>
@@ -117,6 +109,51 @@
   </si>
   <si>
     <t>SLAVEモードにて，シリアル通信でchar型10文字＋';'の文字列送信でコマンドとして受信する</t>
+  </si>
+  <si>
+    <t>モータZの最大速度を(数字)[deg/sec]にする</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>分周設定</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>最高速度</t>
+  </si>
+  <si>
+    <t>[deg/sec]</t>
+  </si>
+  <si>
+    <t>[mm/sec]</t>
+  </si>
+  <si>
+    <t>分解能</t>
+  </si>
+  <si>
+    <t>[deg]</t>
+  </si>
+  <si>
+    <t>モータYの最大速度を(数字)[mm/sec]にする</t>
+  </si>
+  <si>
+    <t>モータXの最大速度を(数字)[mm/sec]にする</t>
+  </si>
+  <si>
+    <t>[mm]</t>
+  </si>
+  <si>
+    <t>1000[pulse/sec]以下にする必要あり．別シート参照</t>
+  </si>
+  <si>
+    <t>分解能は別シート参照</t>
   </si>
 </sst>
 </file>
@@ -440,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <start/>
       <end/>
@@ -553,6 +590,60 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -600,8 +691,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,144 +1020,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:E17"/>
+  <dimension ref="D1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2">
+        <f>1000*360/(200*D3)</f>
+        <v>56.25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2">
+        <f>360/(200*D3)</f>
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <f>4*1000/(200*D4)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2">
+        <f>4/(200*D4)</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>